--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB69609-55F0-4B6D-A7A2-35669163C193}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5384704-7794-467A-8B65-58FE5F51FB0B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,7 +479,7 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>3920</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -680,14 +680,8 @@
       <c r="M5">
         <v>1.4E-2</v>
       </c>
-      <c r="V5">
-        <v>0.18</v>
-      </c>
-      <c r="X5">
-        <v>0.21</v>
-      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -727,14 +721,8 @@
       <c r="M6">
         <v>0.13</v>
       </c>
-      <c r="V6">
-        <v>0.18</v>
-      </c>
-      <c r="X6">
-        <v>0.21</v>
-      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -772,36 +760,6 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="M7">
-        <v>4.3E-3</v>
-      </c>
-      <c r="V7">
-        <v>0.36</v>
-      </c>
-      <c r="X7">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="V8">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="X8">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="V9">
-        <v>0.11</v>
-      </c>
-      <c r="X9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="V10">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="X10">
         <v>4.3E-3</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB69609-55F0-4B6D-A7A2-35669163C193}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D69478-BFD2-5D44-8058-CE916AEE4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K7"/>
+    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>3920</v>
       </c>
@@ -517,7 +522,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +563,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -599,7 +604,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +645,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -680,14 +685,8 @@
       <c r="M5">
         <v>1.4E-2</v>
       </c>
-      <c r="V5">
-        <v>0.18</v>
-      </c>
-      <c r="X5">
-        <v>0.21</v>
-      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -727,14 +726,8 @@
       <c r="M6">
         <v>0.13</v>
       </c>
-      <c r="V6">
-        <v>0.18</v>
-      </c>
-      <c r="X6">
-        <v>0.21</v>
-      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -772,36 +765,6 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="M7">
-        <v>4.3E-3</v>
-      </c>
-      <c r="V7">
-        <v>0.36</v>
-      </c>
-      <c r="X7">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="V8">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="X8">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="V9">
-        <v>0.11</v>
-      </c>
-      <c r="X9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="V10">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="X10">
         <v>4.3E-3</v>
       </c>
     </row>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D69478-BFD2-5D44-8058-CE916AEE4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68574F50-229C-C04D-BBCC-1D2C69325BF4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Right Kidney (g)</t>
-  </si>
-  <si>
-    <t>Left Kidney (g)</t>
-  </si>
-  <si>
-    <t>Kidney Weight</t>
-  </si>
-  <si>
     <t>KW/BW</t>
   </si>
   <si>
@@ -54,6 +45,15 @@
   </si>
   <si>
     <t>HW/BW</t>
+  </si>
+  <si>
+    <t>Right_Kidney</t>
+  </si>
+  <si>
+    <t>Left_Kidney</t>
+  </si>
+  <si>
+    <t>Kidney_Weight</t>
   </si>
 </sst>
 </file>
@@ -134,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,300 +478,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>3920</v>
-      </c>
-      <c r="C1" s="2">
-        <v>3921</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3922</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3923</v>
-      </c>
-      <c r="F1" s="2">
-        <v>3932</v>
-      </c>
-      <c r="G1" s="2">
-        <v>3933</v>
-      </c>
-      <c r="H1" s="2">
-        <v>3934</v>
-      </c>
-      <c r="I1" s="2">
-        <v>3935</v>
-      </c>
-      <c r="J1" s="2">
-        <v>3936</v>
-      </c>
-      <c r="K1" s="2">
-        <v>3937</v>
-      </c>
-      <c r="L1" s="2">
-        <v>3938</v>
-      </c>
-      <c r="M1" s="3">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>0.22</v>
       </c>
       <c r="C2">
+        <v>0.19</v>
+      </c>
+      <c r="D2">
+        <v>0.41</v>
+      </c>
+      <c r="E2">
+        <v>1.14E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.17</v>
+      </c>
+      <c r="G2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3921</v>
+      </c>
+      <c r="B3">
         <v>0.24</v>
-      </c>
-      <c r="D2">
-        <v>0.21</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
-        <v>0.23</v>
-      </c>
-      <c r="G2">
-        <v>0.19</v>
-      </c>
-      <c r="H2">
-        <v>0.21</v>
-      </c>
-      <c r="I2">
-        <v>0.23</v>
-      </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
-        <v>0.19</v>
-      </c>
-      <c r="L2">
-        <v>0.18</v>
-      </c>
-      <c r="M2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.19</v>
       </c>
       <c r="C3">
         <v>0.21</v>
       </c>
       <c r="D3">
+        <v>0.45</v>
+      </c>
+      <c r="E3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.17</v>
+      </c>
+      <c r="G3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3922</v>
+      </c>
+      <c r="B4">
+        <v>0.21</v>
+      </c>
+      <c r="C4">
         <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.23</v>
-      </c>
-      <c r="F3">
-        <v>0.22</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>0.19</v>
-      </c>
-      <c r="K3">
-        <v>0.19</v>
-      </c>
-      <c r="L3">
-        <v>0.18</v>
-      </c>
-      <c r="M3">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.41</v>
-      </c>
-      <c r="C4">
-        <v>0.45</v>
       </c>
       <c r="D4">
         <v>0.41</v>
       </c>
       <c r="E4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.16</v>
+      </c>
+      <c r="G4">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3923</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.23</v>
+      </c>
+      <c r="D5">
         <v>0.43</v>
-      </c>
-      <c r="F4">
-        <v>0.45</v>
-      </c>
-      <c r="G4">
-        <v>0.39</v>
-      </c>
-      <c r="H4">
-        <v>0.41</v>
-      </c>
-      <c r="I4">
-        <v>0.43</v>
-      </c>
-      <c r="J4">
-        <v>0.39</v>
-      </c>
-      <c r="K4">
-        <v>0.38</v>
-      </c>
-      <c r="L4">
-        <v>0.36</v>
-      </c>
-      <c r="M4">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1.14E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.06E-2</v>
       </c>
       <c r="E5">
         <v>1.06E-2</v>
       </c>
       <c r="F5">
+        <v>0.18</v>
+      </c>
+      <c r="G5">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3932</v>
+      </c>
+      <c r="B6">
+        <v>0.23</v>
+      </c>
+      <c r="C6">
+        <v>0.22</v>
+      </c>
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
         <v>1.2E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I5">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.32E-2</v>
-      </c>
-      <c r="L5">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.17</v>
-      </c>
-      <c r="C6">
-        <v>0.17</v>
-      </c>
-      <c r="D6">
-        <v>0.16</v>
-      </c>
-      <c r="E6">
-        <v>0.18</v>
       </c>
       <c r="F6">
         <v>0.17</v>
       </c>
       <c r="G6">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3933</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.39</v>
+      </c>
+      <c r="E7">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F7">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.17</v>
-      </c>
-      <c r="I6">
-        <v>0.16</v>
-      </c>
-      <c r="J6">
-        <v>0.12</v>
-      </c>
-      <c r="K6">
-        <v>0.12</v>
-      </c>
-      <c r="L6">
-        <v>0.11</v>
-      </c>
-      <c r="M6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="C7">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="D7">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E7">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="F7">
-        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3934</v>
+      </c>
+      <c r="B8">
+        <v>0.21</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.41</v>
+      </c>
+      <c r="E8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.17</v>
+      </c>
+      <c r="G8">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I7">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3935</v>
+      </c>
+      <c r="B9">
+        <v>0.23</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.43</v>
+      </c>
+      <c r="E9">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.16</v>
+      </c>
+      <c r="G9">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="J7">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3936</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.19</v>
+      </c>
+      <c r="D10">
+        <v>0.39</v>
+      </c>
+      <c r="E10">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.12</v>
+      </c>
+      <c r="G10">
         <v>4.3E-3</v>
       </c>
-      <c r="K7">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3937</v>
+      </c>
+      <c r="B11">
+        <v>0.19</v>
+      </c>
+      <c r="C11">
+        <v>0.19</v>
+      </c>
+      <c r="D11">
+        <v>0.38</v>
+      </c>
+      <c r="E11">
+        <v>1.32E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.12</v>
+      </c>
+      <c r="G11">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="L7">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3938</v>
+      </c>
+      <c r="B12">
+        <v>0.18</v>
+      </c>
+      <c r="C12">
+        <v>0.18</v>
+      </c>
+      <c r="D12">
+        <v>0.36</v>
+      </c>
+      <c r="E12">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.11</v>
+      </c>
+      <c r="G12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M7">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3939</v>
+      </c>
+      <c r="B13">
+        <v>0.21</v>
+      </c>
+      <c r="C13">
+        <v>0.21</v>
+      </c>
+      <c r="D13">
+        <v>0.42</v>
+      </c>
+      <c r="E13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.13</v>
+      </c>
+      <c r="G13">
         <v>4.3E-3</v>
       </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68574F50-229C-C04D-BBCC-1D2C69325BF4}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03234319-D4AC-F04C-AB66-AAF76549067F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>KW/BW</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Kidney_Weight</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -134,12 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,10 +157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,7 +492,10 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -513,16 +514,8 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3920</v>
       </c>
@@ -544,16 +537,8 @@
       <c r="G2">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3921</v>
       </c>
@@ -575,16 +560,8 @@
       <c r="G3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3922</v>
       </c>
@@ -606,16 +583,8 @@
       <c r="G4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3923</v>
       </c>
@@ -637,16 +606,8 @@
       <c r="G5">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3932</v>
       </c>
@@ -668,16 +629,8 @@
       <c r="G6">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3933</v>
       </c>
@@ -699,16 +652,8 @@
       <c r="G7">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3934</v>
       </c>
@@ -730,16 +675,8 @@
       <c r="G8">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3935</v>
       </c>
@@ -761,17 +698,8 @@
       <c r="G9">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3936</v>
       </c>
@@ -793,17 +721,8 @@
       <c r="G10">
         <v>4.3E-3</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3937</v>
       </c>
@@ -825,17 +744,8 @@
       <c r="G11">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3938</v>
       </c>
@@ -857,17 +767,8 @@
       <c r="G12">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3939</v>
       </c>
@@ -889,70 +790,6 @@
       <c r="G13">
         <v>4.3E-3</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03234319-D4AC-F04C-AB66-AAF76549067F}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625AB705-4A33-734E-B835-AAFAFF5D0CC3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>KW/BW</t>
-  </si>
-  <si>
-    <t>Heart Weight</t>
-  </si>
-  <si>
-    <t>HW/BW</t>
-  </si>
-  <si>
     <t>Right_Kidney</t>
   </si>
   <si>
@@ -57,6 +48,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>KW_BW</t>
+  </si>
+  <si>
+    <t>HW_BW</t>
+  </si>
+  <si>
+    <t>Heart_Weight</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,25 +494,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625AB705-4A33-734E-B835-AAFAFF5D0CC3}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07089F4B-589A-D34E-B400-BD44BF2734F4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3880" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -88,60 +88,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +431,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,7 +444,7 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -515,8 +467,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>3920</v>
       </c>
       <c r="B2">
@@ -529,17 +481,17 @@
         <v>0.41</v>
       </c>
       <c r="E2">
-        <v>1.14E-2</v>
+        <v>11.4</v>
       </c>
       <c r="F2">
         <v>0.17</v>
       </c>
       <c r="G2">
-        <v>4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3921</v>
       </c>
       <c r="B3">
@@ -552,17 +504,17 @@
         <v>0.45</v>
       </c>
       <c r="E3">
-        <v>1.0800000000000001E-2</v>
+        <v>10.8</v>
       </c>
       <c r="F3">
         <v>0.17</v>
       </c>
       <c r="G3">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3922</v>
       </c>
       <c r="B4">
@@ -575,17 +527,17 @@
         <v>0.41</v>
       </c>
       <c r="E4">
-        <v>1.06E-2</v>
+        <v>10.6</v>
       </c>
       <c r="F4">
         <v>0.16</v>
       </c>
       <c r="G4">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3923</v>
       </c>
       <c r="B5">
@@ -598,17 +550,17 @@
         <v>0.43</v>
       </c>
       <c r="E5">
-        <v>1.06E-2</v>
+        <v>10.6</v>
       </c>
       <c r="F5">
         <v>0.18</v>
       </c>
       <c r="G5">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3932</v>
       </c>
       <c r="B6">
@@ -621,17 +573,17 @@
         <v>0.45</v>
       </c>
       <c r="E6">
-        <v>1.2E-2</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>0.17</v>
       </c>
       <c r="G6">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3933</v>
       </c>
       <c r="B7">
@@ -644,17 +596,17 @@
         <v>0.39</v>
       </c>
       <c r="E7">
-        <v>1.2200000000000001E-2</v>
+        <v>12.2</v>
       </c>
       <c r="F7">
         <v>0.14000000000000001</v>
       </c>
       <c r="G7">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>3934</v>
       </c>
       <c r="B8">
@@ -667,17 +619,17 @@
         <v>0.41</v>
       </c>
       <c r="E8">
-        <v>1.2999999999999999E-2</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>0.17</v>
       </c>
       <c r="G8">
-        <v>5.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>3935</v>
       </c>
       <c r="B9">
@@ -690,17 +642,17 @@
         <v>0.43</v>
       </c>
       <c r="E9">
-        <v>1.1299999999999999E-2</v>
+        <v>11.3</v>
       </c>
       <c r="F9">
         <v>0.16</v>
       </c>
       <c r="G9">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>3936</v>
       </c>
       <c r="B10">
@@ -713,17 +665,17 @@
         <v>0.39</v>
       </c>
       <c r="E10">
-        <v>1.3899999999999999E-2</v>
+        <v>13.9</v>
       </c>
       <c r="F10">
         <v>0.12</v>
       </c>
       <c r="G10">
-        <v>4.3E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>3937</v>
       </c>
       <c r="B11">
@@ -736,17 +688,17 @@
         <v>0.38</v>
       </c>
       <c r="E11">
-        <v>1.32E-2</v>
+        <v>13.2</v>
       </c>
       <c r="F11">
         <v>0.12</v>
       </c>
       <c r="G11">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>3938</v>
       </c>
       <c r="B12">
@@ -759,17 +711,17 @@
         <v>0.36</v>
       </c>
       <c r="E12">
-        <v>1.3899999999999999E-2</v>
+        <v>13.9</v>
       </c>
       <c r="F12">
         <v>0.11</v>
       </c>
       <c r="G12">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>3939</v>
       </c>
       <c r="B13">
@@ -782,13 +734,13 @@
         <v>0.42</v>
       </c>
       <c r="E13">
-        <v>1.4E-2</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0.13</v>
       </c>
       <c r="G13">
-        <v>4.3E-3</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Tissue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07089F4B-589A-D34E-B400-BD44BF2734F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074C92D-F7AD-5F40-878C-4B9227C7525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3880" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="6000" windowWidth="28740" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Right_Kidney</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Heart_Weight</t>
+  </si>
+  <si>
+    <t>HW_BW_In</t>
+  </si>
+  <si>
+    <t>KW_BW_In</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,7 +450,7 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -466,8 +472,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3920</v>
       </c>
@@ -489,8 +501,14 @@
       <c r="G2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3921</v>
       </c>
@@ -512,8 +530,14 @@
       <c r="G3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>4.3</v>
+      </c>
+      <c r="I3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3922</v>
       </c>
@@ -535,8 +559,14 @@
       <c r="G4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>4.3</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3923</v>
       </c>
@@ -558,8 +588,14 @@
       <c r="G5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I5">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3932</v>
       </c>
@@ -581,8 +617,14 @@
       <c r="G6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>4.2</v>
+      </c>
+      <c r="I6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3933</v>
       </c>
@@ -604,8 +646,14 @@
       <c r="G7">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>4.3</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3934</v>
       </c>
@@ -627,8 +675,14 @@
       <c r="G8">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>5.4</v>
+      </c>
+      <c r="I8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3935</v>
       </c>
@@ -650,8 +704,14 @@
       <c r="G9">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>4.2</v>
+      </c>
+      <c r="I9">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3936</v>
       </c>
@@ -673,8 +733,14 @@
       <c r="G10">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3937</v>
       </c>
@@ -696,8 +762,14 @@
       <c r="G11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>2.8</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3938</v>
       </c>
@@ -719,8 +791,14 @@
       <c r="G12">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>3.3</v>
+      </c>
+      <c r="I12">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3939</v>
       </c>
@@ -741,6 +819,12 @@
       </c>
       <c r="G13">
         <v>4.3</v>
+      </c>
+      <c r="H13">
+        <v>3.1</v>
+      </c>
+      <c r="I13">
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>
